--- a/analysis/zeroshot.xlsx
+++ b/analysis/zeroshot.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariajahnke/Desktop/Desktop - Maria’s MacBook Pro/Masterthesis/Python/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353EFFF1-F43C-9F44-AA56-B0B709F8A989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB91D92-EC9D-CF49-AC1E-4BC55C0345AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1591,8 +1594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="66" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1887,7 +1890,7 @@
     </row>
     <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>10</v>
@@ -1896,12 +1899,12 @@
         <v>7</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="208" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>10</v>
@@ -1910,12 +1913,12 @@
         <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="208" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>10</v>
@@ -1924,12 +1927,12 @@
         <v>7</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="395" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>10</v>
@@ -1938,12 +1941,12 @@
         <v>7</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="395" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>10</v>
@@ -1952,12 +1955,12 @@
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>10</v>
@@ -1966,12 +1969,12 @@
         <v>7</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="335" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>10</v>
@@ -1980,12 +1983,12 @@
         <v>7</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="335" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="272" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>10</v>
@@ -1994,12 +1997,12 @@
         <v>7</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="272" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
@@ -2008,12 +2011,12 @@
         <v>7</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -2022,12 +2025,12 @@
         <v>7</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>10</v>
@@ -2036,12 +2039,12 @@
         <v>7</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="288" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="320" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>10</v>
@@ -2050,40 +2053,40 @@
         <v>7</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="320" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="288" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>10</v>
@@ -2092,35 +2095,35 @@
         <v>7</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="350" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="350" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="288" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="256" x14ac:dyDescent="0.2">
@@ -2184,6 +2187,11 @@
       <c r="C42" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E41">
+      <sortCondition ref="A1:A41"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>